--- a/biology/Zoologie/Conomurex/Conomurex.xlsx
+++ b/biology/Zoologie/Conomurex/Conomurex.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conomurex est un genre de mollusques de la classe des gastéropodes. Ces espèces sont couramment appelées conques ou strombes.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le WoRMS attribue désormais[1] ce genre à Paul Henri Fischer toutefois, dans le manuel rédigé par celui-ci en 1884, il est fait mention, pour ce genre, d'un certain E. Bayle de Besançon[2], ce que reprend BioLib[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le WoRMS attribue désormais ce genre à Paul Henri Fischer toutefois, dans le manuel rédigé par celui-ci en 1884, il est fait mention, pour ce genre, d'un certain E. Bayle de Besançon, ce que reprend BioLib.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (12 décembre 2020)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (12 décembre 2020) :
 Conomurex coniformis (Sowerby II, 1842)
 Conomurex decorus (Röding, 1798)
 Conomurex fasciatus (Born, 1778)
@@ -582,7 +598,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Paul Henri Fischer, Joseph Wilson Lowry, Samuel Pickworth Woodward et Daniel Paulin Oehlert, Manuel de conchyliologie et de paleontologie conchyliologique : ou, Histoire naturelle des mollusques vivants et fossiles, Paris, Inconnu, 1887, 1 486 p. (OCLC 1543138, DOI 10.5962/BHL.TITLE.13213)</t>
         </is>
